--- a/docs/RiskAssessment.xlsx
+++ b/docs/RiskAssessment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zake3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zake3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8703A138-3483-4BCC-8C7C-EC45872AF1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811C328C-B852-42CC-AEEF-7C1AB356E240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C00451D0-CB44-4EED-9DFF-DE72342549B6}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,10 +709,10 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
